--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248436.5299943771</v>
+        <v>245735.9925255525</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12263261.34284487</v>
+        <v>12263261.34284486</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>231.5028800078648</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>204.3467949813256</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>38.03674379190306</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
-        <v>45.65997571111031</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.0936058323785</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>9.073230791688108</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.5074920846282</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.32572783638014</v>
+        <v>12.32572783638013</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.9865017432184</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>95.7047239302068</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>117.5429153145396</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>39.12119795259544</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,13 +984,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>135.9731553115983</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.85195735900767</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.0968555152071</v>
+        <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
         <v>193.7444632813738</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>131.7691941080605</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6555953037877</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3543942759101</v>
+        <v>126.6681423767297</v>
       </c>
       <c r="I7" t="n">
-        <v>115.2918344467884</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.249668337144</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.2398575583235</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2461902262361</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214181</v>
       </c>
       <c r="F8" t="n">
-        <v>291.8554944408494</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>8.90616225919203</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>315.3998342615246</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>76.66276752108857</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.5243384108993</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1582,7 +1582,7 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>30.0570603750443</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428006</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.2655838169987</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>219.2450387532278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>139.5115415340514</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833619</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.9742741983374</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605716356</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>108.2950343703269</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699823</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179098</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>156.2292142534455</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695558</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176126</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611471347</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428161</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880065</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.3603872485086</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="C2" t="n">
-        <v>268.3603872485086</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="D2" t="n">
-        <v>268.3603872485086</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="E2" t="n">
-        <v>268.3603872485086</v>
+        <v>268.3603872485082</v>
       </c>
       <c r="F2" t="n">
-        <v>261.4148864993051</v>
+        <v>261.4148864993047</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I2" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470325</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605486</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859561</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779382</v>
+        <v>643.3443219779376</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948976</v>
+        <v>813.5133472948969</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444243</v>
+        <v>924.247672544423</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660193</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="T2" t="n">
-        <v>744.4319308337305</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="U2" t="n">
-        <v>502.2016801857458</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="V2" t="n">
-        <v>502.2016801857458</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="W2" t="n">
-        <v>502.2016801857458</v>
+        <v>717.0015419180336</v>
       </c>
       <c r="X2" t="n">
-        <v>268.3603872485086</v>
+        <v>474.7712912700492</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.3603872485086</v>
+        <v>268.3603872485082</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473.8910584911422</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="C3" t="n">
-        <v>473.8910584911422</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="D3" t="n">
-        <v>324.9566488298909</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="F3" t="n">
-        <v>19.18463585132039</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="G3" t="n">
-        <v>19.18463585132039</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="H3" t="n">
-        <v>19.18463585132039</v>
+        <v>65.08949286100389</v>
       </c>
       <c r="I3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467734</v>
+        <v>86.79245551467721</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303712</v>
+        <v>290.138833160713</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849759</v>
+        <v>469.6361695153176</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376405</v>
+        <v>668.2929111679821</v>
       </c>
       <c r="O3" t="n">
-        <v>761.688444206401</v>
+        <v>827.8052238367425</v>
       </c>
       <c r="P3" t="n">
-        <v>870.3780717336997</v>
+        <v>936.4948513640411</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660194</v>
+        <v>938.1198929682047</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660194</v>
+        <v>788.6531038308394</v>
       </c>
       <c r="T3" t="n">
-        <v>762.242496726107</v>
+        <v>788.6531038308394</v>
       </c>
       <c r="U3" t="n">
-        <v>762.242496726107</v>
+        <v>788.6531038308394</v>
       </c>
       <c r="V3" t="n">
-        <v>762.242496726107</v>
+        <v>553.5009955990968</v>
       </c>
       <c r="W3" t="n">
-        <v>520.0122460781223</v>
+        <v>311.2707449511124</v>
       </c>
       <c r="X3" t="n">
-        <v>473.8910584911422</v>
+        <v>311.2707449511124</v>
       </c>
       <c r="Y3" t="n">
-        <v>473.8910584911422</v>
+        <v>103.5104461861585</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>338.2374581915631</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3012752636561</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="J4" t="n">
-        <v>19.18463585132039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>63.76336012264457</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>248.5963550234629</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>453.8659557427007</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>659.689320578805</v>
+        <v>656.2710011584438</v>
       </c>
       <c r="O4" t="n">
-        <v>833.7842159674038</v>
+        <v>830.3658965470426</v>
       </c>
       <c r="P4" t="n">
-        <v>959.2317925660194</v>
+        <v>955.8134731456581</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660194</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="R4" t="n">
-        <v>828.7538312854222</v>
+        <v>959.2317925660179</v>
       </c>
       <c r="S4" t="n">
-        <v>828.7538312854222</v>
+        <v>950.0669129784542</v>
       </c>
       <c r="T4" t="n">
-        <v>828.7538312854222</v>
+        <v>724.4377162908191</v>
       </c>
       <c r="U4" t="n">
-        <v>828.7538312854222</v>
+        <v>482.2074656428348</v>
       </c>
       <c r="V4" t="n">
-        <v>586.5235806374375</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="W4" t="n">
-        <v>586.5235806374375</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="X4" t="n">
-        <v>358.5340297394201</v>
+        <v>239.9772149948505</v>
       </c>
       <c r="Y4" t="n">
-        <v>358.5340297394201</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.5124357879879</v>
+        <v>819.2914516197307</v>
       </c>
       <c r="C5" t="n">
-        <v>410.5124357879879</v>
+        <v>819.2914516197307</v>
       </c>
       <c r="D5" t="n">
-        <v>52.24673718123738</v>
+        <v>461.0257530129801</v>
       </c>
       <c r="E5" t="n">
-        <v>52.24673718123738</v>
+        <v>461.0257530129801</v>
       </c>
       <c r="F5" t="n">
-        <v>45.30123643203391</v>
+        <v>454.0802522637767</v>
       </c>
       <c r="G5" t="n">
-        <v>32.8510062942762</v>
+        <v>441.630022126019</v>
       </c>
       <c r="H5" t="n">
-        <v>32.8510062942762</v>
+        <v>129.5224446076165</v>
       </c>
       <c r="I5" t="n">
-        <v>32.8510062942762</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7588362828594</v>
+        <v>103.7588362828606</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230104</v>
+        <v>260.7698107230121</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340386</v>
+        <v>492.4575702340411</v>
       </c>
       <c r="M5" t="n">
-        <v>781.9242815861662</v>
+        <v>781.9242815861691</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334934</v>
+        <v>1080.688675334937</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.468159143668</v>
+        <v>1349.468159143672</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282336</v>
+        <v>1544.364229282341</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.55031471381</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.55031471381</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.55031471381</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="T5" t="n">
-        <v>1642.55031471381</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="U5" t="n">
-        <v>1642.55031471381</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="V5" t="n">
-        <v>1642.55031471381</v>
+        <v>1311.487427370244</v>
       </c>
       <c r="W5" t="n">
-        <v>1289.781659443696</v>
+        <v>1311.487427370244</v>
       </c>
       <c r="X5" t="n">
-        <v>916.315901182616</v>
+        <v>938.0216691091646</v>
       </c>
       <c r="Y5" t="n">
-        <v>526.1765692068043</v>
+        <v>819.2914516197307</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170.1976278211432</v>
+        <v>170.1976278211482</v>
       </c>
       <c r="C6" t="n">
-        <v>170.1976278211432</v>
+        <v>130.6812662528699</v>
       </c>
       <c r="D6" t="n">
-        <v>170.1976278211432</v>
+        <v>130.6812662528699</v>
       </c>
       <c r="E6" t="n">
-        <v>170.1976278211432</v>
+        <v>130.6812662528699</v>
       </c>
       <c r="F6" t="n">
-        <v>32.8510062942762</v>
+        <v>130.6812662528699</v>
       </c>
       <c r="G6" t="n">
-        <v>32.8510062942762</v>
+        <v>130.6812662528699</v>
       </c>
       <c r="H6" t="n">
-        <v>32.8510062942762</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="I6" t="n">
-        <v>32.8510062942762</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="J6" t="n">
-        <v>56.26537711121789</v>
+        <v>56.2653771112182</v>
       </c>
       <c r="K6" t="n">
-        <v>433.1743036725805</v>
+        <v>433.1743036725832</v>
       </c>
       <c r="L6" t="n">
-        <v>638.3959866239204</v>
+        <v>638.3959866239235</v>
       </c>
       <c r="M6" t="n">
-        <v>897.2368791189608</v>
+        <v>897.2368791189645</v>
       </c>
       <c r="N6" t="n">
-        <v>1177.337164748979</v>
+        <v>1177.337164748983</v>
       </c>
       <c r="O6" t="n">
-        <v>1411.354408869188</v>
+        <v>1411.354408869193</v>
       </c>
       <c r="P6" t="n">
-        <v>1579.84081235706</v>
+        <v>1579.840812357065</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.55031471381</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="R6" t="n">
-        <v>1642.55031471381</v>
+        <v>1642.550314713815</v>
       </c>
       <c r="S6" t="n">
-        <v>1499.018137425722</v>
+        <v>1499.018137425727</v>
       </c>
       <c r="T6" t="n">
-        <v>1303.316659363728</v>
+        <v>1303.316659363734</v>
       </c>
       <c r="U6" t="n">
-        <v>1075.198891751574</v>
+        <v>1075.198891751579</v>
       </c>
       <c r="V6" t="n">
-        <v>840.0467835198315</v>
+        <v>840.0467835198365</v>
       </c>
       <c r="W6" t="n">
-        <v>585.8094267916299</v>
+        <v>585.8094267916349</v>
       </c>
       <c r="X6" t="n">
-        <v>377.9579265860971</v>
+        <v>377.9579265861021</v>
       </c>
       <c r="Y6" t="n">
-        <v>170.1976278211432</v>
+        <v>170.1976278211482</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1047.539391973326</v>
+        <v>160.7986248566295</v>
       </c>
       <c r="C7" t="n">
-        <v>914.4391959045782</v>
+        <v>160.7986248566295</v>
       </c>
       <c r="D7" t="n">
-        <v>764.3225564922425</v>
+        <v>160.7986248566295</v>
       </c>
       <c r="E7" t="n">
-        <v>616.4094629098494</v>
+        <v>160.7986248566295</v>
       </c>
       <c r="F7" t="n">
-        <v>469.519515411939</v>
+        <v>160.7986248566295</v>
       </c>
       <c r="G7" t="n">
-        <v>301.1805302565979</v>
+        <v>160.7986248566295</v>
       </c>
       <c r="H7" t="n">
-        <v>149.3074047253756</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="I7" t="n">
-        <v>32.8510062942762</v>
+        <v>32.8510062942763</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735793</v>
+        <v>33.89295411735815</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779931</v>
+        <v>165.4420311779935</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565129</v>
+        <v>389.3059936565136</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409646</v>
+        <v>635.7282771409655</v>
       </c>
       <c r="N7" t="n">
-        <v>881.7258059268945</v>
+        <v>881.7258059268956</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.928044100017</v>
+        <v>1092.928044100018</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.127362942349</v>
+        <v>1250.127362942351</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.528942871344</v>
+        <v>1275.528942871345</v>
       </c>
       <c r="R7" t="n">
-        <v>1275.528942871344</v>
+        <v>1157.094934449988</v>
       </c>
       <c r="S7" t="n">
-        <v>1275.528942871344</v>
+        <v>1157.094934449988</v>
       </c>
       <c r="T7" t="n">
-        <v>1275.528942871344</v>
+        <v>932.6102298456208</v>
       </c>
       <c r="U7" t="n">
-        <v>1275.528942871344</v>
+        <v>643.4726639605337</v>
       </c>
       <c r="V7" t="n">
-        <v>1275.528942871344</v>
+        <v>388.7881757546469</v>
       </c>
       <c r="W7" t="n">
-        <v>1275.528942871344</v>
+        <v>388.7881757546469</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.539391973326</v>
+        <v>160.7986248566295</v>
       </c>
       <c r="Y7" t="n">
-        <v>1047.539391973326</v>
+        <v>160.7986248566295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1101.768613746537</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C8" t="n">
-        <v>1101.768613746537</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D8" t="n">
-        <v>743.5029151397862</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E8" t="n">
-        <v>357.7146625415419</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.50778578647</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810658</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>60.24291006213647</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>60.24291006213647</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1898.076467649853</v>
+        <v>1872.090169197694</v>
       </c>
       <c r="C11" t="n">
-        <v>1529.113950709441</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1170.848252102691</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>785.0599995044466</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>785.0599995044466</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>370.4442349455922</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592075</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.161540565696</v>
+        <v>695.1615405656976</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484043</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479996</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796038</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377402</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498931</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.34786015536</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885245</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624166</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2284.676307713975</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
         <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749522</v>
+        <v>996.4574081599346</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450732</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.8915125252787</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>689.9553295973718</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>539.8386901850361</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026429</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047326</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758649</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.20859537694</v>
+        <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742808</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710544</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1728.355788710544</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1473.671300504657</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1184.254130467697</v>
+        <v>814.5429355999229</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.254130467697</v>
+        <v>586.5533847019055</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4615513241666</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1089.57599612053</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C16" t="n">
-        <v>920.6398131926228</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D16" t="n">
-        <v>770.5231737802872</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E16" t="n">
-        <v>622.6100801978938</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F16" t="n">
-        <v>475.7201326999834</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>308.5240334148634</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>166.8122022570615</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>2264.108249235164</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1720.006590992317</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y16" t="n">
-        <v>1271.224460950769</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="17">
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,13 +5765,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703107</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424038</v>
+        <v>344.9174178121623</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300681</v>
+        <v>194.8007783998266</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998266</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>695.502065570309</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297722</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797742</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511393</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6698,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,13 +6880,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854706</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138413</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121645</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121645</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121645</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121645</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,7 +7117,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7132,13 +7132,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876681</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597612</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270442</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179079</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928426</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>66.78462588923443</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.78462588923516</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>49.70416500699031</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,7 +8146,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>111.3252676074451</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.89011047839806</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104353</v>
+        <v>28.58095358104327</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>261.3486997213849</v>
+        <v>261.348699721387</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.87305750948298</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.575171134965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.30764177103802</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>188.5275929770505</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909865119</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.000252501566834</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>32.89260457060018</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>6.92242111251781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459506</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459385</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405075</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>40.32043864788548</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294897</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.35543909864924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405076</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.595665406741</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194228</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>964564.8968569618</v>
+        <v>964564.8968569617</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1061489.458897255</v>
+        <v>1061489.458897254</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1061489.458897255</v>
+        <v>1061489.458897254</v>
       </c>
     </row>
     <row r="9">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234784</v>
+        <v>329665.1599234783</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605028</v>
@@ -26338,10 +26338,10 @@
         <v>363215.9698605028</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605026</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
         <v>363215.9698605028</v>
@@ -26350,10 +26350,10 @@
         <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="P2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800892</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706851</v>
+        <v>189098.6751706866</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517705</v>
+        <v>237173.5150517696</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704288</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353588</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203314</v>
+        <v>43966.08035203358</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.58031572269</v>
+        <v>58197.58031572239</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273088</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
         <v>49839.57413202355</v>
@@ -26418,22 +26418,22 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.9869351609</v>
+        <v>210476.9869351605</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12891.4455871839</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="G4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683041</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26448,16 +26448,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683046</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.7022343733</v>
+        <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911813</v>
+        <v>74737.94401911824</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-604986.1577815613</v>
+        <v>-604986.1577815611</v>
       </c>
       <c r="C6" t="n">
-        <v>-104844.8096860367</v>
+        <v>-104844.8096860379</v>
       </c>
       <c r="D6" t="n">
-        <v>-104593.5850355067</v>
+        <v>-104593.5850355058</v>
       </c>
       <c r="E6" t="n">
-        <v>-81940.92808566889</v>
+        <v>-82162.05939964324</v>
       </c>
       <c r="F6" t="n">
-        <v>59788.30711933658</v>
+        <v>59753.56919390043</v>
       </c>
       <c r="G6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643295</v>
       </c>
       <c r="H6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643295</v>
       </c>
       <c r="I6" t="n">
-        <v>249096.5758897651</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="J6" t="n">
-        <v>186352.2651062293</v>
+        <v>186317.5271807937</v>
       </c>
       <c r="K6" t="n">
-        <v>205130.495537732</v>
+        <v>205095.757612296</v>
       </c>
       <c r="L6" t="n">
-        <v>190898.9955740424</v>
+        <v>190864.2576486071</v>
       </c>
       <c r="M6" t="n">
-        <v>167199.1721770344</v>
+        <v>167164.4342515987</v>
       </c>
       <c r="N6" t="n">
-        <v>199257.0017577416</v>
+        <v>199222.263832306</v>
       </c>
       <c r="O6" t="n">
-        <v>249096.5758897653</v>
+        <v>249061.8379643293</v>
       </c>
       <c r="P6" t="n">
-        <v>249096.5758897652</v>
+        <v>249061.8379643293</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902857</v>
+        <v>740.5311575902866</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784525</v>
+        <v>410.6375786784538</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.4761003380648</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522209</v>
+        <v>147.055057252222</v>
       </c>
       <c r="D3" t="n">
-        <v>193.5337345272534</v>
+        <v>193.5337345272527</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369476</v>
+        <v>170.8296305369493</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215863</v>
+        <v>229.9472534215851</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
         <v>203.487464150639</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415048</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369476</v>
+        <v>170.8296305369493</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215863</v>
+        <v>229.9472534215851</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
         <v>203.487464150639</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415049</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369476</v>
+        <v>170.8296305369493</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215863</v>
+        <v>229.9472534215851</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
         <v>203.487464150639</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1089558044319</v>
+        <v>173.1089558044323</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>11.34683808079578</v>
+        <v>11.34683808079615</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>138.2282206706042</v>
+        <v>129.9231525369646</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>181.8911436747279</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>128.4964398579643</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183512</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.88703501941475</v>
+        <v>11.88703501941512</v>
       </c>
       <c r="X3" t="n">
-        <v>160.1130094923672</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7383743495588</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176901</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>196.2926511084306</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>46.4527065165925</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232315</v>
+        <v>12.32969518232352</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.2263495788524</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9865017432184</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020694</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.1074921335361</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>268.695023341514</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>133.5873010357203</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>9.096057081785602</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>96.8519573590077</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175712</v>
+        <v>34.55541033175705</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899359283</v>
+        <v>1.261993899359155</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>35.47762699056733</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6555953037877</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>23.68625189918036</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.2918344467883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.249668337144</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7444959205694</v>
+        <v>200.7444959205693</v>
       </c>
       <c r="T7" t="n">
-        <v>222.2398575583236</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2461902262361</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>345.97791572012</v>
       </c>
       <c r="F8" t="n">
-        <v>115.020551300862</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>137.5278003873771</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651557</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.486976877902</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074823</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.7102483359669</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810515</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.95082441182839</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512821</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900652</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947076</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080801</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308315</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08398246702897147</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207013</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.18391704784129</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490376</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
         <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676926</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
         <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.61489115104779</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937816</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
         <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522793</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390808</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.977009678754915</v>
+        <v>2.977009678754919</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254878</v>
+        <v>30.48830037254882</v>
       </c>
       <c r="I5" t="n">
-        <v>114.771165640199</v>
+        <v>114.7711656401991</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6699752222252</v>
+        <v>252.6699752222255</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239208</v>
+        <v>378.6867949239213</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801167</v>
+        <v>469.7944548801173</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546744</v>
+        <v>522.7368507546751</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044368</v>
+        <v>531.1952795044375</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113176</v>
+        <v>501.5926395113182</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0977130670556</v>
+        <v>428.0977130670561</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466451</v>
+        <v>321.4835539466455</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330886</v>
+        <v>187.0045842330888</v>
       </c>
       <c r="S5" t="n">
-        <v>67.8386080546277</v>
+        <v>67.83860805462778</v>
       </c>
       <c r="T5" t="n">
-        <v>13.03185986874965</v>
+        <v>13.03185986874966</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003932</v>
+        <v>0.2381607743003935</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.592840603118728</v>
+        <v>1.59284060311873</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748877</v>
+        <v>15.38348687748879</v>
       </c>
       <c r="I6" t="n">
-        <v>54.84122251965796</v>
+        <v>54.84122251965803</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4885062797391</v>
+        <v>150.4885062797393</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886939</v>
+        <v>257.2088266886942</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236519</v>
+        <v>345.8490090236523</v>
       </c>
       <c r="M6" t="n">
-        <v>403.5894808867056</v>
+        <v>403.5894808867062</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277958</v>
+        <v>414.2712935277963</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113229</v>
+        <v>378.9772991113234</v>
       </c>
       <c r="P6" t="n">
-        <v>304.1626937657157</v>
+        <v>304.1626937657161</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595064</v>
+        <v>203.3247057595067</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328385</v>
+        <v>98.89584025328398</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863074</v>
+        <v>29.58631558863077</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447853</v>
+        <v>6.420265413447861</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047921449420216</v>
+        <v>0.1047921449420217</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671007</v>
+        <v>1.335384054671009</v>
       </c>
       <c r="H7" t="n">
-        <v>11.87277823152951</v>
+        <v>11.87277823152952</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048046993</v>
+        <v>40.15864048046998</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524018</v>
+        <v>94.4116526652403</v>
       </c>
       <c r="K7" t="n">
-        <v>155.147347442686</v>
+        <v>155.1473474426862</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644514</v>
+        <v>198.5351893644516</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972015</v>
+        <v>209.3275204972018</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297916</v>
+        <v>204.3501799297918</v>
       </c>
       <c r="O7" t="n">
-        <v>188.7504662002257</v>
+        <v>188.7504662002259</v>
       </c>
       <c r="P7" t="n">
-        <v>161.508631484937</v>
+        <v>161.5086314849372</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961331</v>
+        <v>111.8202047961333</v>
       </c>
       <c r="R7" t="n">
-        <v>60.04372304002544</v>
+        <v>60.04372304002551</v>
       </c>
       <c r="S7" t="n">
-        <v>23.2721021164029</v>
+        <v>23.27210211640293</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957937</v>
+        <v>5.705731869957944</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478228</v>
+        <v>0.07283913025478236</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,34 +31753,34 @@
         <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696629</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0744558279829</v>
+        <v>250.19804513143</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593844</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33992,7 +33992,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34466,7 +34466,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705378</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292146</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012657</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.297184739376</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.887904360565</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874004</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130808</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268378</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>138.6157555714079</v>
+        <v>205.4003814606423</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>109.787502552827</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>89.7512331639593</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>45.02901441547897</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295332</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233376</v>
+        <v>147.4099394863209</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553893</v>
+        <v>71.62407069553925</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789403</v>
+        <v>158.5969438789407</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101295</v>
+        <v>234.02803991013</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274017</v>
+        <v>292.3906175274024</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078459</v>
+        <v>301.7822159078466</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896309</v>
+        <v>271.4944280896315</v>
       </c>
       <c r="P5" t="n">
-        <v>196.864717311786</v>
+        <v>196.8647173117865</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.1778640721956</v>
+        <v>99.177864072196</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.65087961307242</v>
+        <v>23.65087961307262</v>
       </c>
       <c r="K6" t="n">
-        <v>380.7160874357198</v>
+        <v>380.7160874357222</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2946292437777</v>
+        <v>207.2946292437781</v>
       </c>
       <c r="M6" t="n">
-        <v>261.4554469646873</v>
+        <v>261.4554469646878</v>
       </c>
       <c r="N6" t="n">
-        <v>282.9295814444625</v>
+        <v>282.929581444463</v>
       </c>
       <c r="O6" t="n">
-        <v>236.3810546668785</v>
+        <v>236.3810546668789</v>
       </c>
       <c r="P6" t="n">
-        <v>170.1882863513854</v>
+        <v>170.1882863513858</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.34293167348488</v>
+        <v>63.34293167348514</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.052472548567408</v>
+        <v>1.052472548567522</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168032</v>
+        <v>132.8778556168034</v>
       </c>
       <c r="L7" t="n">
-        <v>226.1252146247675</v>
+        <v>226.1252146247678</v>
       </c>
       <c r="M7" t="n">
-        <v>248.9113974590421</v>
+        <v>248.9113974590424</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090202</v>
+        <v>248.4823523090204</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142653</v>
+        <v>213.3355941142656</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7871907498305</v>
+        <v>158.7871907498307</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443876</v>
+        <v>25.6581615444389</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>546.4575832202789</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>122.9404219059646</v>
+        <v>108.0640112094117</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070198</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060432</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795102</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
